--- a/templates/CoLDP nameusage.xlsx
+++ b/templates/CoLDP nameusage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26EF685-A04C-3742-B1EE-CB2462FB16F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD42C87A-452D-FA4B-BCC6-F0DAD38ACE37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="2060" windowWidth="26740" windowHeight="13480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>collector</t>
   </si>
   <si>
-    <t>appendedNamePhrase</t>
-  </si>
-  <si>
     <t>scrutinizer</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>nameStatus</t>
+  </si>
+  <si>
+    <t>appendedPhrase</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -760,7 +760,7 @@
         <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -775,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
@@ -790,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T1" t="s">
         <v>37</v>
@@ -799,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
         <v>70</v>
-      </c>
-      <c r="W1" t="s">
-        <v>71</v>
       </c>
       <c r="X1" t="s">
         <v>38</v>

--- a/templates/CoLDP nameusage.xlsx
+++ b/templates/CoLDP nameusage.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD42C87A-452D-FA4B-BCC6-F0DAD38ACE37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF96A4-6BAB-8B4F-AB4E-81B3F31739C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="2060" windowWidth="26740" windowHeight="13480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="2060" windowWidth="26740" windowHeight="13480" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
     <sheet name="NameUsage" sheetId="3" r:id="rId2"/>
     <sheet name="NameRelation" sheetId="4" r:id="rId3"/>
-    <sheet name="TypeMaterial" sheetId="12" r:id="rId4"/>
-    <sheet name="Distribution" sheetId="2" r:id="rId5"/>
-    <sheet name="Media" sheetId="5" r:id="rId6"/>
-    <sheet name="VernacularName" sheetId="9" r:id="rId7"/>
-    <sheet name="Reference" sheetId="6" r:id="rId8"/>
+    <sheet name="TaxonRelation" sheetId="13" r:id="rId4"/>
+    <sheet name="TypeMaterial" sheetId="12" r:id="rId5"/>
+    <sheet name="Distribution" sheetId="2" r:id="rId6"/>
+    <sheet name="Media" sheetId="5" r:id="rId7"/>
+    <sheet name="VernacularName" sheetId="9" r:id="rId8"/>
+    <sheet name="Reference" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>taxonID</t>
   </si>
@@ -254,6 +255,9 @@
   </si>
   <si>
     <t>appendedPhrase</t>
+  </si>
+  <si>
+    <t>relatedTaxonID</t>
   </si>
 </sst>
 </file>
@@ -718,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -875,6 +879,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAC3E1E-7310-BE4B-8901-FBA3B18F192E}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6BB32B-4EE1-E242-AD06-60BB0A8C9265}">
   <dimension ref="A1:O1"/>
   <sheetViews>
@@ -936,7 +978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -977,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1030,7 +1072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1081,7 +1123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>

--- a/templates/CoLDP nameusage.xlsx
+++ b/templates/CoLDP nameusage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF96A4-6BAB-8B4F-AB4E-81B3F31739C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CAF65-298E-544D-92E3-536177DD1E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="2060" windowWidth="26740" windowHeight="13480" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="2060" windowWidth="26740" windowHeight="13480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
@@ -254,10 +254,10 @@
     <t>nameStatus</t>
   </si>
   <si>
-    <t>appendedPhrase</t>
-  </si>
-  <si>
     <t>relatedTaxonID</t>
+  </si>
+  <si>
+    <t>namePhrase</t>
   </si>
 </sst>
 </file>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -779,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
@@ -882,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAC3E1E-7310-BE4B-8901-FBA3B18F192E}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>

--- a/templates/CoLDP nameusage.xlsx
+++ b/templates/CoLDP nameusage.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/gdower_illinois_edu/Documents/Documents/coldp-master/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CAF65-298E-544D-92E3-536177DD1E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{670CAF65-298E-544D-92E3-536177DD1E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0559A151-37B8-436E-8451-6F264CA8C7BB}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="2060" windowWidth="26740" windowHeight="13480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="30750" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
-    <sheet name="NameUsage" sheetId="3" r:id="rId2"/>
-    <sheet name="NameRelation" sheetId="4" r:id="rId3"/>
-    <sheet name="TaxonRelation" sheetId="13" r:id="rId4"/>
-    <sheet name="TypeMaterial" sheetId="12" r:id="rId5"/>
-    <sheet name="Distribution" sheetId="2" r:id="rId6"/>
-    <sheet name="Media" sheetId="5" r:id="rId7"/>
-    <sheet name="VernacularName" sheetId="9" r:id="rId8"/>
-    <sheet name="Reference" sheetId="6" r:id="rId9"/>
+    <sheet name="Distribution" sheetId="2" r:id="rId2"/>
+    <sheet name="Media" sheetId="5" r:id="rId3"/>
+    <sheet name="NameReference" sheetId="16" r:id="rId4"/>
+    <sheet name="NameRelation" sheetId="4" r:id="rId5"/>
+    <sheet name="NameUsage" sheetId="3" r:id="rId6"/>
+    <sheet name="Reference" sheetId="6" r:id="rId7"/>
+    <sheet name="SpeciesEstimate" sheetId="14" r:id="rId8"/>
+    <sheet name="SpeciesInteraction" sheetId="15" r:id="rId9"/>
+    <sheet name="TaxonConceptRelation" sheetId="13" r:id="rId10"/>
+    <sheet name="Treatment" sheetId="17" r:id="rId11"/>
+    <sheet name="TypeMaterial" sheetId="12" r:id="rId12"/>
+    <sheet name="VernacularName" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>taxonID</t>
   </si>
@@ -83,15 +87,6 @@
     <t>cultivarEpithet</t>
   </si>
   <si>
-    <t>publishedInID</t>
-  </si>
-  <si>
-    <t>publishedInPage</t>
-  </si>
-  <si>
-    <t>publishedInYear</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -158,9 +153,6 @@
     <t>temporalRangeEnd</t>
   </si>
   <si>
-    <t>lifezone</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -170,9 +162,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>lifeStage</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -215,9 +204,6 @@
     <t>logo</t>
   </si>
   <si>
-    <t>originalNameId</t>
-  </si>
-  <si>
     <t>uninomial</t>
   </si>
   <si>
@@ -258,6 +244,90 @@
   </si>
   <si>
     <t>namePhrase</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>relatedTaxonScientificName</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>areaID</t>
+  </si>
+  <si>
+    <t>basionymID</t>
+  </si>
+  <si>
+    <t>nameReferenceID</t>
+  </si>
+  <si>
+    <t>namePublishedInYear</t>
+  </si>
+  <si>
+    <t>namePublishedInPage</t>
+  </si>
+  <si>
+    <t>namePublishedInPageLink</t>
+  </si>
+  <si>
+    <t>scrutinizerID</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>subgenus</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>subtribe</t>
+  </si>
+  <si>
+    <t>tribe</t>
+  </si>
+  <si>
+    <t>subfamily</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>subphylum</t>
+  </si>
+  <si>
+    <t>phylum</t>
+  </si>
+  <si>
+    <t>kingdom</t>
   </si>
 </sst>
 </file>
@@ -623,94 +693,94 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -718,113 +788,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC1"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAC3E1E-7310-BE4B-8901-FBA3B18F192E}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="25.1640625" customWidth="1"/>
-    <col min="15" max="19" width="20.5" customWidth="1"/>
-    <col min="20" max="29" width="25.1640625" customWidth="1"/>
-    <col min="30" max="1033" width="11.5"/>
+    <col min="1" max="5" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -837,35 +826,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602B0E3A-F9F6-4B07-BDBB-84B20A2A1B30}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6BB32B-4EE1-E242-AD06-60BB0A8C9265}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="1025" width="11.5"/>
+    <col min="1" max="8" width="37" customWidth="1"/>
+    <col min="9" max="1024" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -878,18 +967,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAC3E1E-7310-BE4B-8901-FBA3B18F192E}">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="46.1640625" customWidth="1"/>
+    <col min="1" max="7" width="39.7109375" customWidth="1"/>
+    <col min="8" max="1026" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,13 +989,19 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
+      <c r="G1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -916,97 +1014,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6BB32B-4EE1-E242-AD06-60BB0A8C9265}">
-  <dimension ref="A1:O1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="1025" width="11.42578125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="5" width="50.83203125" customWidth="1"/>
-    <col min="6" max="1025" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1019,47 +1067,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2687E8-09ED-4482-8FF3-B0D7B19BC16C}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="29.83203125" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
+    <col min="1" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1072,45 +1143,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AU1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="37" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
+    <col min="1" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" customWidth="1"/>
+    <col min="15" max="17" width="20.42578125" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="20.42578125" customWidth="1"/>
+    <col min="21" max="31" width="25.140625" customWidth="1"/>
+    <col min="32" max="1035" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
         <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1123,50 +1318,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="35" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
+    <col min="10" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1177,4 +1372,77 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B352900-57DC-4CF3-BDA6-4D6088B03928}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1BD3C5-187E-4165-AE47-11A3016D5FDF}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>